--- a/applications/Brazil/Campinas_projections.xlsx
+++ b/applications/Brazil/Campinas_projections.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\applications\Brazil\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04A211-C3BE-4843-AC6B-BD2294B03D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Column1</t>
   </si>
@@ -106,23 +122,23 @@
     <t>seroprevalence</t>
   </si>
   <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>UB</t>
+    <t>Column25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,37 +172,46 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X4" totalsRowShown="0">
-  <autoFilter ref="A1:X4"/>
-  <tableColumns count="24">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y5" totalsRowShown="0">
+  <autoFilter ref="A1:Y5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{B419BBCB-F4D9-49A9-8D9B-0D841BE6C456}" name="Column25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -235,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +292,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,6 +344,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,14 +537,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:X4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +619,11 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -565,7 +631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -591,84 +657,86 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" t="s">
-        <v>32</v>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>90414</v>
+      </c>
+      <c r="B4">
+        <v>58950</v>
+      </c>
+      <c r="C4">
+        <v>131772</v>
+      </c>
+      <c r="D4">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="E4">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="F4">
+        <v>7.3206666666666669</v>
+      </c>
+      <c r="G4">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.56333333333333335</v>
+      </c>
+      <c r="J4">
+        <v>0.53792899862418975</v>
+      </c>
+      <c r="K4">
+        <v>0.69271284551022283</v>
+      </c>
+      <c r="L4">
+        <v>0.65347859009953069</v>
+      </c>
+      <c r="M4">
+        <v>7350</v>
+      </c>
+      <c r="N4">
+        <v>1722</v>
+      </c>
+      <c r="O4">
+        <v>8160</v>
+      </c>
+      <c r="P4">
+        <v>0.42732558139534887</v>
+      </c>
+      <c r="Q4">
+        <v>0.1001162790697674</v>
+      </c>
+      <c r="R4">
+        <v>0.47441860465116281</v>
+      </c>
+      <c r="S4">
+        <v>6.80225E-2</v>
+      </c>
+      <c r="T4">
+        <v>1.4650833333333333E-2</v>
+      </c>
+      <c r="U4">
+        <v>5.9301666666666669E-2</v>
+      </c>
+      <c r="V4">
+        <v>0.66034021370353968</v>
+      </c>
+      <c r="W4">
+        <v>0.69434784551022288</v>
+      </c>
+      <c r="X4">
+        <v>0.54150399862418974</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/applications/Brazil/Campinas_projections.xlsx
+++ b/applications/Brazil/Campinas_projections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\applications\Brazil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04A211-C3BE-4843-AC6B-BD2294B03D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354A4A9-8551-459A-9DE5-ABB6CC18660A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Column1</t>
   </si>
@@ -120,25 +120,16 @@
   </si>
   <si>
     <t>seroprevalence</t>
-  </si>
-  <si>
-    <t>Column25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,9 +175,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y5" totalsRowShown="0">
-  <autoFilter ref="A1:Y5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X4" totalsRowShown="0">
+  <autoFilter ref="A1:X4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
@@ -211,7 +202,6 @@
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{B419BBCB-F4D9-49A9-8D9B-0D841BE6C456}" name="Column25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -538,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:X4"/>
@@ -546,7 +536,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,11 +609,8 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -631,7 +618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -657,82 +644,81 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>90414</v>
+        <v>86784</v>
       </c>
       <c r="B4">
-        <v>58950</v>
+        <v>53958</v>
       </c>
       <c r="C4">
-        <v>131772</v>
+        <v>81498</v>
       </c>
       <c r="D4">
-        <v>5.0229999999999997</v>
+        <v>4.8213333333333326</v>
       </c>
       <c r="E4">
-        <v>3.2749999999999999</v>
+        <v>2.997666666666666</v>
       </c>
       <c r="F4">
-        <v>7.3206666666666669</v>
+        <v>4.5276666666666667</v>
       </c>
       <c r="G4">
-        <v>0.42799999999999999</v>
+        <v>0.14433333333333334</v>
       </c>
       <c r="H4">
-        <v>0.35399999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
-        <v>0.56333333333333335</v>
+        <v>0.12766666666666668</v>
       </c>
       <c r="J4">
-        <v>0.53792899862418975</v>
+        <v>0.66811212764870509</v>
       </c>
       <c r="K4">
-        <v>0.69271284551022283</v>
+        <v>0.56986671038632719</v>
       </c>
       <c r="L4">
-        <v>0.65347859009953069</v>
+        <v>0.60725740832858899</v>
       </c>
       <c r="M4">
-        <v>7350</v>
+        <v>4884</v>
       </c>
       <c r="N4">
-        <v>1722</v>
+        <v>4608</v>
       </c>
       <c r="O4">
-        <v>8160</v>
+        <v>10662</v>
       </c>
       <c r="P4">
-        <v>0.42732558139534887</v>
+        <v>0.28395348837209311</v>
       </c>
       <c r="Q4">
-        <v>0.1001162790697674</v>
+        <v>0.26790697674418612</v>
       </c>
       <c r="R4">
-        <v>0.47441860465116281</v>
+        <v>0.61988372093023258</v>
       </c>
       <c r="S4">
-        <v>6.80225E-2</v>
+        <v>9.4183333333333341E-3</v>
       </c>
       <c r="T4">
-        <v>1.4650833333333333E-2</v>
+        <v>6.6274999999999997E-3</v>
       </c>
       <c r="U4">
-        <v>5.9301666666666669E-2</v>
+        <v>2.4766666666666666E-2</v>
       </c>
       <c r="V4">
-        <v>0.66034021370353968</v>
+        <v>0.67135712764870514</v>
       </c>
       <c r="W4">
-        <v>0.69434784551022288</v>
+        <v>0.57316171038632713</v>
       </c>
       <c r="X4">
-        <v>0.54150399862418974</v>
+        <v>0.61189240832858893</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
